--- a/SQL_Kozynest/accommodation.xlsx
+++ b/SQL_Kozynest/accommodation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYK\Desktop\project\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A340D62-D157-47A2-B84F-8211ED48B12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A90052D-B390-4CD7-9D99-41FEFB93902F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2676" yWindow="540" windowWidth="12912" windowHeight="13212" xr2:uid="{06EA28EA-E4C7-4333-AFAC-8E01A97935E3}"/>
+    <workbookView xWindow="1044" yWindow="468" windowWidth="12912" windowHeight="13212" xr2:uid="{06EA28EA-E4C7-4333-AFAC-8E01A97935E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="819">
   <si>
     <t>aseq</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2951,42 +2951,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wylee11@gmail.com</t>
-  </si>
-  <si>
-    <t>cllts976@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mjxgr111@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>orzhi703@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oaetx1043@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>blmwf134@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dwkau387@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aemoq314@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aqqwc745@naver.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvqeg1182@gmail.com</t>
+    <t>sslee1592@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hgkim723@gmail.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3400,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA00C64-AF21-4F9B-8371-92D16ABA9498}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5401,7 +5370,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>817</v>
+        <v>761</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>285</v>
@@ -5423,7 +5392,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>818</v>
+        <v>762</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>288</v>
@@ -5445,7 +5414,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>819</v>
+        <v>763</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>291</v>
@@ -5467,7 +5436,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>820</v>
+        <v>764</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>294</v>
@@ -5489,7 +5458,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>821</v>
+        <v>765</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>297</v>
@@ -5511,7 +5480,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>822</v>
+        <v>766</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>301</v>
@@ -5533,7 +5502,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>823</v>
+        <v>767</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>304</v>
@@ -5555,7 +5524,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>824</v>
+        <v>768</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>308</v>
@@ -5577,7 +5546,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>311</v>
@@ -5599,7 +5568,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>826</v>
+        <v>88</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>314</v>
@@ -6765,7 +6734,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>476</v>
@@ -6941,7 +6910,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>788</v>
+        <v>752</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>500</v>
@@ -7601,7 +7570,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>818</v>
+        <v>752</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>592</v>
@@ -7623,7 +7592,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>819</v>
+        <v>753</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>596</v>
@@ -7645,7 +7614,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>820</v>
+        <v>754</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>599</v>
@@ -7667,7 +7636,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>821</v>
+        <v>755</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>602</v>
@@ -7689,7 +7658,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>822</v>
+        <v>756</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>605</v>
@@ -7711,7 +7680,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>823</v>
+        <v>757</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>608</v>
@@ -7733,7 +7702,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>824</v>
+        <v>758</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>611</v>
@@ -7755,7 +7724,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>825</v>
+        <v>759</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>614</v>
@@ -7777,7 +7746,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>826</v>
+        <v>760</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>617</v>
